--- a/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร_11_27_2025.xlsx
+++ b/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร_11_27_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E135D-259D-42D1-A836-05D395177D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C15D2-E51F-44BB-8762-50288EEFCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2175" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{8CD91B2B-7389-4CCD-B3AA-419B3EA4F8F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{8CD91B2B-7389-4CCD-B3AA-419B3EA4F8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="มคอ. 2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="167">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -760,9 +760,6 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,13 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -803,40 +794,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,18 +815,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,9 +822,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,30 +836,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,1352 +1224,1347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184F2C67-FEB5-468F-B59A-0604AA423B28}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="4">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="4">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>6</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3">
-        <v>3</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3">
-        <v>3</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="9" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A50" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="8">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A52" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A53" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="11">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="15" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="11">
         <f>SUMIF(D4:D49,"กลุ่มวิชาสุขภาพ",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="15" t="s">
+      <c r="F54" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <f>SUMIF(D4:D49,"กลุ่มวิชาบูรณาการ",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="16" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="11">
         <f>SUMIF(D4:D49,"กลุ่มวิชาสังคมศาสตร์และมนุษยศาสตร์",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="15" t="s">
+      <c r="F56" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="11">
         <f>SUMIF(D4:D49,"กลุ่มวิชาวิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="17" t="s">
+      <c r="F57" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A58" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="14">
         <f>SUMIF(D4:D49,"กลุ่มวิชาพื้นฐานทางวิทยาศาสตร์และคณิตศาสตร์",E4:E49)</f>
         <v>13</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="14">
         <f>SUMIF(D4:D49,"กลุ่มวิชาพื้นฐานทางวิศวกรรมศาสตร์",E4:E49)</f>
         <v>19</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="14">
         <f>SUMIF(D4:D49,"กลุ่มฮาร์ดแวร์และสถาปัตยกรรมคอมพิวเตอร์",E4:E49)</f>
         <v>14</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="14">
         <f>SUMIF(D4:D49,"กลุ่มโครงสร้างพื้นฐานของระบบ",E4:E49)</f>
         <v>18</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="14">
         <f>SUMIF(D4:D49,"กลุ่มเทคโนโลยีและวิธีการทางซอฟต์แวร์",E4:E49)</f>
         <v>9</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="14">
         <f>SUMIF(D4:D49,"กลุ่มเทคโนโลยีเพื่องานประยุกต์",E4:E49)</f>
         <v>3</v>
       </c>
-      <c r="F63" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19" t="s">
+      <c r="F63" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.8">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="14">
         <f>SUMIF(D4:D49,"กลุ่มฝึกวิชาชีพและโครงงาน",E4:E49)</f>
         <v>11</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="20">
+      <c r="D65" s="30"/>
+      <c r="E65" s="14">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A66" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="15">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="25" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A67" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="16">
         <f>SUM(E53:E66)</f>
         <v>87</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="16">
         <f>SUM(F53:F66)</f>
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A58:B65"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -2578,6 +2573,11 @@
     <mergeCell ref="A53:B57"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A58:B65"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A66:D66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2587,1513 +2587,1515 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F6E0D-CA71-44F1-9177-65A3F90E8AFD}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="29">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="17">
         <f>SUM(E4:E10)</f>
         <v>21</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="29">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="17">
         <f>SUM(E12:E18)</f>
         <v>20</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="H21" s="4"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="29">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="17">
         <f>SUM(E20:E26)</f>
         <v>21</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>23</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>24</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>25</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>26</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>27</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="4">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>28</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>29</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="4">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="36">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="20">
         <f>SUM(E28:E35)</f>
         <v>22</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29" t="s">
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="29">
-        <v>3</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="29" t="s">
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="44" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29" t="s">
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="29">
-        <v>3</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="29" t="s">
+      <c r="E38" s="17">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="29">
-        <v>3</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="29" t="s">
+      <c r="E39" s="17">
+        <v>3</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="47"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="29">
-        <v>3</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="29" t="s">
+      <c r="E40" s="17">
+        <v>3</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="47"/>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="29">
-        <v>3</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="29" t="s">
+      <c r="E41" s="17">
+        <v>3</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="47"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="29">
-        <v>3</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="29" t="s">
+      <c r="E42" s="17">
+        <v>3</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="47"/>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
+      <c r="H42" s="17"/>
+      <c r="I42" s="42"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="29">
-        <v>3</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="E43" s="17">
+        <v>3</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="36">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="20">
         <f>SUM(E37:E43)</f>
         <v>21</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="41"/>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="17">
         <v>4</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="44" t="s">
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="41" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="17">
         <v>1</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29" t="s">
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="42"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="17">
         <v>1</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="47"/>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="42"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="29">
-        <v>3</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="29" t="s">
+      <c r="E48" s="17">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="47"/>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29" t="s">
+      <c r="H48" s="17"/>
+      <c r="I48" s="42"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="29">
-        <v>3</v>
-      </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29" t="s">
+      <c r="E49" s="17">
+        <v>3</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="42"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="29">
-        <v>3</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="47"/>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29" t="s">
+      <c r="E50" s="17">
+        <v>3</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="42"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="29">
-        <v>3</v>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="47"/>
-    </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29" t="s">
+      <c r="E51" s="17">
+        <v>3</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="29">
-        <v>3</v>
-      </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="E52" s="17">
+        <v>3</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="36">
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="20">
         <f>SUM(E45:E52)</f>
         <v>21</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29" t="s">
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="17">
         <v>6</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="3" t="s">
+      <c r="H54" s="18"/>
+      <c r="I54" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="36">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="20">
         <f>SUM(E54)</f>
         <v>6</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="41"/>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="29">
-        <v>3</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="29" t="s">
+      <c r="E56" s="17">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="3" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="29">
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="17">
         <f>SUM(E56)</f>
         <v>3</v>
       </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="41"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A59" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A60" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="11">
         <f>SUMIF(D3:D56,"กลุ่มวิชาภาษาและการสื่อสาร",E3:E56)</f>
         <v>12</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="11">
         <v>12</v>
       </c>
-      <c r="H60" s="38"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="38"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="15" t="s">
+      <c r="H60" s="22"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="11">
         <f>SUMIF(D3:D56,"กลุ่มวิชาสุขภาพ",E3:E56)</f>
         <v>3</v>
       </c>
-      <c r="F61" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15" t="s">
+      <c r="F61" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="11">
         <f>SUMIF(D3:D56,"กลุ่มวิชาบูรณาการ",E3:E56)</f>
         <v>9</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="16" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="11">
         <f>SUMIF(D3:D56,"กลุ่มวิชาสังคมศาสตร์และมนุษยศาสตร์",E3:E56)</f>
         <v>3</v>
       </c>
-      <c r="F63" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="15" t="s">
+      <c r="F63" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.8">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="11">
         <f>SUMIF(D3:D56,"กลุ่มวิชาวิทยาศาสตร์และคณิตศาสตร์",E3:E56)</f>
         <v>3</v>
       </c>
-      <c r="F64" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="17" t="s">
+      <c r="F64" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A65" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="14">
         <f>SUMIF(D3:D56,"กลุ่มวิชาพื้นฐานทางวิทยาศาสตร์และคณิตศาสตร์",E3:E56)</f>
         <v>10</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="14">
         <f>SUMIF(D3:D56,"กลุ่มวิชาพื้นฐานทางวิศวกรรมศาสตร์",E3:E56)</f>
         <v>22</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="14">
         <f>SUMIF(D3:D56,"กลุ่มฮาร์ดแวร์และสถาปัตยกรรมคอมพิวเตอร์",E3:E56)</f>
         <v>14</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="14">
         <f>SUMIF(D3:D56,"กลุ่มโครงสร้างพื้นฐานของระบบ",E3:E56)</f>
         <v>18</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="14">
         <f>SUMIF(D3:D56,"กลุ่มเทคโนโลยีและวิธีการทางซอฟต์แวร์",E3:E56)</f>
         <v>9</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="14">
         <f>SUMIF(D3:D56,"กลุ่มเทคโนโลยีเพื่องานประยุกต์",E3:E56)</f>
         <v>3</v>
       </c>
-      <c r="F70" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19" t="s">
+      <c r="F70" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="14">
         <f>SUMIF(D3:D56,"กลุ่มฝึกวิชาชีพและโครงงาน",E3:E56)</f>
         <v>11</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="20">
+      <c r="D72" s="30"/>
+      <c r="E72" s="14">
         <f>SUMIF(D3:D56,"วิชาเลือก (กลุ่มวิชาชีพเลือก)",E3:E56)</f>
         <v>12</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A73" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="15">
         <f>SUMIF(D3:D56,"หมวดวิชาเลือกเสรี",E3:E56)</f>
         <v>6</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A74" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="16">
         <f>SUM(E60:E73)</f>
         <v>135</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="16">
         <f>SUM(F60:F73)</f>
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I37:I43"/>
-    <mergeCell ref="I45:I52"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:B64"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:B72"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C71"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C72:D72"/>
@@ -4106,14 +4108,12 @@
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:B64"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:B72"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="I37:I43"/>
+    <mergeCell ref="I45:I52"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="I28:I35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4125,1484 +4125,1454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59701EE5-B31B-46C0-9AB0-5BA39FFC1AF6}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="27">
         <f>SUM(E4:E10)</f>
         <v>21</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="44" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="36">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="20">
         <f>SUM(E12:E19)</f>
         <v>24</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="29">
-        <v>3</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29" t="s">
+      <c r="E22" s="17">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="29">
-        <v>3</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29" t="s">
+      <c r="E23" s="17">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="29">
-        <v>3</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="29" t="s">
+      <c r="E24" s="17">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="47"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="29">
-        <v>3</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29" t="s">
+      <c r="E25" s="17">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="47"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="29">
-        <v>3</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="29" t="s">
+      <c r="E26" s="17">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="29">
-        <v>3</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29" t="s">
+      <c r="E27" s="17">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="29">
-        <v>3</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="29">
-        <v>3</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="29" t="s">
+      <c r="E29" s="17">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="36">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="20">
         <f>SUM(E21:E29)</f>
         <v>25</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="29">
-        <v>3</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="44" t="s">
+      <c r="E31" s="17">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29" t="s">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="29">
-        <v>3</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29" t="s">
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="29">
-        <v>3</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="47"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29" t="s">
+      <c r="E33" s="17">
+        <v>3</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="29">
-        <v>3</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="29" t="s">
+      <c r="E34" s="17">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
+      <c r="H34" s="18"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="29">
-        <v>3</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="29" t="s">
+      <c r="E35" s="17">
+        <v>3</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="29">
-        <v>3</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="29" t="s">
+      <c r="E36" s="17">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="42"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="29">
-        <v>3</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="29" t="s">
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="29">
-        <v>3</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="43" t="s">
+      <c r="E38" s="17">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="36">
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="20">
         <f>SUM(E31:E38)</f>
         <v>24</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="38"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29" t="s">
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="29">
-        <v>3</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="1" t="s">
+      <c r="E40" s="17">
+        <v>3</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="29">
-        <v>3</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29" t="s">
+      <c r="E41" s="17">
+        <v>3</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="29">
-        <v>3</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
+      <c r="E42" s="17">
+        <v>3</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="29">
-        <v>3</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="29" t="s">
+      <c r="E43" s="17">
+        <v>3</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="29">
-        <v>3</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="29" t="s">
+      <c r="E44" s="17">
+        <v>3</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="29">
-        <v>3</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="29" t="s">
+      <c r="E45" s="17">
+        <v>3</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
+      <c r="H45" s="17"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="29">
-        <v>3</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="29" t="s">
+      <c r="E46" s="17">
+        <v>3</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="H46" s="17"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="36">
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="20">
         <f>SUM(E40:E46)</f>
         <v>21</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="50"/>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="29">
-        <v>3</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="44" t="s">
+      <c r="E48" s="17">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="41" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29" t="s">
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="29">
-        <v>3</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29" t="s">
+      <c r="E49" s="17">
+        <v>3</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="42"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="17">
         <v>1</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="47"/>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="42"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="17">
         <v>1</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="47"/>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29" t="s">
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="29">
-        <v>3</v>
-      </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="29" t="s">
+      <c r="E52" s="17">
+        <v>3</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="H52" s="17"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="36">
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="20">
         <f>SUM(E48:E52)</f>
         <v>11</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29" t="s">
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="17">
         <v>6</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="3" t="s">
+      <c r="H54" s="17"/>
+      <c r="I54" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="36">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="20">
         <f>SUM(E54)</f>
         <v>6</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="38"/>
-    </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="29">
-        <v>3</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="29" t="s">
+      <c r="E56" s="17">
+        <v>3</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="3" t="s">
+      <c r="H56" s="18"/>
+      <c r="I56" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="29">
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="17">
         <f>SUM(E56)</f>
         <v>3</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="38"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A59" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A60" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="11">
         <f>SUMIF(D3:D57,"กลุ่มวิชาภาษาและการสื่อสาร",E3:E57)</f>
         <v>12</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="15" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="11">
         <f>SUMIF(D3:D57,"กลุ่มวิชาสุขภาพ",E3:E57)</f>
         <v>3</v>
       </c>
-      <c r="F61" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15" t="s">
+      <c r="F61" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="11">
         <f>SUMIF(D3:D57,"กลุ่มวิชาบูรณาการ",E3:E57)</f>
         <v>9</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="16" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="11">
         <f>SUMIF(D3:D57,"กลุ่มวิชาสังคมศาสตร์และมนุษยศาสตร์",E3:E57)</f>
         <v>3</v>
       </c>
-      <c r="F63" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="15" t="s">
+      <c r="F63" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="11">
         <f>SUMIF(D3:D57,"กลุ่มวิชาวิทยาศาสตร์และคณิตศาสตร์",E3:E57)</f>
         <v>3</v>
       </c>
-      <c r="F64" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="17" t="s">
+      <c r="F64" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A65" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="14">
         <f>SUMIF(D3:D57,"กลุ่มวิชาพื้นฐานทางวิทยาศาสตร์และคณิตศาสตร์",E3:E57)</f>
         <v>10</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="14">
         <f>SUMIF(D3:D57,"กลุ่มวิชาพื้นฐานทางวิศวกรรมศาสตร์",E3:E57)</f>
         <v>22</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="14">
         <f>SUMIF(D3:D57,"กลุ่มฮาร์ดแวร์และสถาปัตยกรรมคอมพิวเตอร์",E3:E57)</f>
         <v>14</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="14">
         <f>SUMIF(D3:D57,"กลุ่มโครงสร้างพื้นฐานของระบบ",E3:E57)</f>
         <v>18</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="14">
         <f>SUMIF(D3:D57,"กลุ่มเทคโนโลยีและวิธีการทางซอฟต์แวร์",E3:E57)</f>
         <v>9</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="14">
         <f>SUMIF(D3:D57,"กลุ่มเทคโนโลยีเพื่องานประยุกต์",E3:E57)</f>
         <v>3</v>
       </c>
-      <c r="F70" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19" t="s">
+      <c r="F70" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="14">
         <f>SUMIF(D3:D57,"กลุ่มฝึกวิชาชีพและโครงงาน",E3:E57)</f>
         <v>11</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="20">
+      <c r="D72" s="30"/>
+      <c r="E72" s="14">
         <f>SUMIF(D3:D57,"วิชาเลือก (กลุ่มวิชาชีพเลือก)",E3:E57)</f>
         <v>12</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A73" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="15">
         <f>SUMIF(D3:D57,"หมวดวิชาเลือกเสรี",E3:E57)</f>
         <v>6</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.8">
+      <c r="A74" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="16">
         <f>SUM(E60:E73)</f>
         <v>135</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="16">
         <f>SUM(F60:F73)</f>
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I38"/>
-    <mergeCell ref="I40:I46"/>
-    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A20:D20"/>
@@ -5617,13 +5587,11 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I38"/>
+    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="I48:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร_11_27_2025.xlsx
+++ b/RMUTL_DOCUMENT/ตรวจสอบเรียนครบหลักสูตร_11_27_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C15D2-E51F-44BB-8762-50288EEFCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C5577-487E-4052-AA7A-D30C6BCBF5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{8CD91B2B-7389-4CCD-B3AA-419B3EA4F8F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="171">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>ปี 3 เทอม 2</t>
+  </si>
+  <si>
+    <t>GEBSO501</t>
+  </si>
+  <si>
+    <t>GEBSC301</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศที่จำเป็นในชีวิตประจำวัน</t>
+  </si>
+  <si>
+    <t>การพัฒนาทักษะชีวิตและสังคม</t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,19 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,10 +884,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,7 +920,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184F2C67-FEB5-468F-B59A-0604AA423B28}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -1242,28 +1275,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2300,24 +2333,24 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="8">
         <f>SUM(E4:E49)</f>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="2" t="s">
         <v>101</v>
       </c>
@@ -2326,11 +2359,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -2345,9 +2378,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="12" t="s">
         <v>106</v>
       </c>
@@ -2360,9 +2393,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="12" t="s">
         <v>107</v>
       </c>
@@ -2375,9 +2408,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="12" t="s">
@@ -2392,9 +2425,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="12" t="s">
         <v>110</v>
       </c>
@@ -2407,11 +2440,11 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -2426,9 +2459,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="13" t="s">
         <v>18</v>
       </c>
@@ -2441,9 +2474,9 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -2458,9 +2491,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="13" t="s">
         <v>38</v>
       </c>
@@ -2473,9 +2506,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="13" t="s">
         <v>35</v>
       </c>
@@ -2488,9 +2521,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="13" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2536,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="13" t="s">
         <v>85</v>
       </c>
@@ -2518,12 +2551,12 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="30"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="14">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
@@ -2533,12 +2566,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
       <c r="E66" s="15">
         <f>SUMIF(D4:D49,"กลุ่มวิชาภาษาและการสื่อสาร",E4:E49)</f>
         <v>0</v>
@@ -2548,12 +2581,12 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="16">
         <f>SUM(E53:E66)</f>
         <v>87</v>
@@ -2587,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F6E0D-CA71-44F1-9177-65A3F90E8AFD}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -2606,30 +2639,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -2681,7 +2714,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2706,7 +2739,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2729,7 +2762,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2752,7 +2785,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2775,7 +2808,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -2798,7 +2831,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -2821,15 +2854,15 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="17">
         <f>SUM(E4:E10)</f>
         <v>21</v>
@@ -2861,7 +2894,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="33" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2886,7 +2919,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -2909,7 +2942,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -2932,7 +2965,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -2957,7 +2990,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -2980,7 +3013,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3003,15 +3036,15 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="17">
         <f>SUM(E12:E18)</f>
         <v>20</v>
@@ -3043,7 +3076,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="33" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3070,7 +3103,7 @@
         <v>42</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3095,7 +3128,7 @@
         <v>33</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3120,7 +3153,7 @@
         <v>42</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3143,7 +3176,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3166,7 +3199,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3189,15 +3222,15 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="17">
         <f>SUM(E20:E26)</f>
         <v>21</v>
@@ -3231,7 +3264,7 @@
       <c r="H28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="33" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3260,7 +3293,7 @@
       <c r="H29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="37"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -3285,7 +3318,7 @@
       <c r="H30" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="37"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3310,7 +3343,7 @@
       <c r="H31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="37"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -3337,7 +3370,7 @@
       <c r="H32" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="37"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -3362,7 +3395,7 @@
       <c r="H33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="37"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -3387,7 +3420,7 @@
       <c r="H34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="37"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -3414,15 +3447,15 @@
       <c r="H35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="37"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="20">
         <f>SUM(E28:E35)</f>
         <v>22</v>
@@ -3450,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="49" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3473,7 +3506,7 @@
         <v>42</v>
       </c>
       <c r="H38" s="18"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
@@ -3494,7 +3527,7 @@
         <v>59</v>
       </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="42"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
@@ -3515,7 +3548,7 @@
         <v>63</v>
       </c>
       <c r="H40" s="18"/>
-      <c r="I40" s="42"/>
+      <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
@@ -3536,7 +3569,7 @@
         <v>63</v>
       </c>
       <c r="H41" s="17"/>
-      <c r="I41" s="42"/>
+      <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -3557,32 +3590,34 @@
         <v>152</v>
       </c>
       <c r="H42" s="17"/>
-      <c r="I42" s="42"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
-      <c r="B43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="18"/>
+      <c r="B43" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="D43" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="29">
         <v>3</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="38"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="20">
         <f>SUM(E37:E43)</f>
         <v>21</v>
@@ -3608,7 +3643,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3629,7 +3664,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="42"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
@@ -3648,7 +3683,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="42"/>
+      <c r="I47" s="50"/>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
@@ -3669,41 +3704,45 @@
         <v>68</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="42"/>
+      <c r="I48" s="50"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18" t="s">
+      <c r="B49" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="17">
-        <v>3</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="42"/>
+      <c r="E49" s="52">
+        <v>3</v>
+      </c>
+      <c r="F49" s="54"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
-      <c r="B50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
+      <c r="B50" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="17">
-        <v>3</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="42"/>
+      <c r="E50" s="52">
+        <v>3</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
@@ -3720,7 +3759,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="42"/>
+      <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
@@ -3737,15 +3776,15 @@
       <c r="F52" s="19"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="20">
         <f>SUM(E45:E52)</f>
         <v>21</v>
@@ -3778,12 +3817,12 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="20">
         <f>SUM(E54)</f>
         <v>6</v>
@@ -3816,12 +3855,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="17">
         <f>SUM(E56)</f>
         <v>3</v>
@@ -3831,12 +3870,12 @@
       <c r="H57" s="24"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="2" t="s">
         <v>101</v>
       </c>
@@ -3845,11 +3884,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39" t="s">
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -3868,9 +3907,9 @@
       <c r="K60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="12" t="s">
         <v>106</v>
       </c>
@@ -3883,9 +3922,9 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="12" t="s">
         <v>107</v>
       </c>
@@ -3898,9 +3937,9 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -3915,9 +3954,9 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.8">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="12" t="s">
         <v>110</v>
       </c>
@@ -3930,11 +3969,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -3949,9 +3988,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="13" t="s">
         <v>18</v>
       </c>
@@ -3964,9 +4003,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -3981,9 +4020,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="13" t="s">
         <v>38</v>
       </c>
@@ -3996,9 +4035,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
@@ -4011,9 +4050,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="13" t="s">
         <v>65</v>
       </c>
@@ -4026,9 +4065,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="13" t="s">
         <v>85</v>
       </c>
@@ -4041,12 +4080,12 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="30"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="14">
         <f>SUMIF(D3:D56,"วิชาเลือก (กลุ่มวิชาชีพเลือก)",E3:E56)</f>
         <v>12</v>
@@ -4056,12 +4095,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="15">
         <f>SUMIF(D3:D56,"หมวดวิชาเลือกเสรี",E3:E56)</f>
         <v>6</v>
@@ -4071,12 +4110,12 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="16">
         <f>SUM(E60:E73)</f>
         <v>135</v>
@@ -4088,14 +4127,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:B64"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:B72"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="I28:I35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C72:D72"/>
@@ -4112,8 +4145,14 @@
     <mergeCell ref="I45:I52"/>
     <mergeCell ref="I4:I10"/>
     <mergeCell ref="I12:I18"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:B64"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:B72"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4123,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59701EE5-B31B-46C0-9AB0-5BA39FFC1AF6}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -4144,30 +4183,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -4219,7 +4258,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4244,7 +4283,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -4267,7 +4306,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -4292,7 +4331,7 @@
       <c r="H7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -4315,7 +4354,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -4340,7 +4379,7 @@
       <c r="H9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -4363,15 +4402,15 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="27">
         <f>SUM(E4:E10)</f>
         <v>21</v>
@@ -4402,7 +4441,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="49" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4427,7 +4466,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -4450,7 +4489,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -4475,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -4498,9 +4537,9 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -4521,9 +4560,9 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -4548,9 +4587,9 @@
       <c r="H18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -4571,15 +4610,15 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="20">
         <f>SUM(E12:E19)</f>
         <v>24</v>
@@ -4588,8 +4627,16 @@
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
       <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
         <v>21</v>
@@ -4606,11 +4653,19 @@
       <c r="F21" s="19"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="49" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="22"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>25</v>
@@ -4627,9 +4682,17 @@
       <c r="F22" s="19"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="50"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>133</v>
@@ -4646,9 +4709,17 @@
       <c r="F23" s="19"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="50"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>45</v>
@@ -4667,30 +4738,28 @@
         <v>13</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
-        <v>47</v>
+      <c r="B25" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="17">
+        <v>38</v>
+      </c>
+      <c r="E25" s="29">
         <v>3</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>49</v>
@@ -4709,9 +4778,9 @@
         <v>42</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>51</v>
@@ -4728,9 +4797,9 @@
       <c r="F27" s="19"/>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>53</v>
@@ -4749,9 +4818,9 @@
         <v>42</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>55</v>
@@ -4770,15 +4839,15 @@
         <v>33</v>
       </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="20">
         <f>SUM(E21:E29)</f>
         <v>25</v>
@@ -4788,60 +4857,66 @@
       <c r="H30" s="24"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
-        <v>36</v>
+      <c r="B31" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="17">
+        <v>18</v>
+      </c>
+      <c r="E31" s="29">
         <v>3</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="42"/>
+      <c r="B32" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="52">
+        <v>3</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="17">
-        <v>3</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="52">
+        <v>3</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
@@ -4862,7 +4937,7 @@
         <v>42</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="42"/>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
@@ -4883,7 +4958,7 @@
         <v>55</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="42"/>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
@@ -4904,7 +4979,7 @@
         <v>33</v>
       </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="42"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -4925,7 +5000,7 @@
         <v>42</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="42"/>
+      <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
@@ -4946,15 +5021,15 @@
         <v>149</v>
       </c>
       <c r="H38" s="18"/>
-      <c r="I38" s="38"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="20">
         <f>SUM(E31:E38)</f>
         <v>24</v>
@@ -4979,7 +5054,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="33" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5000,7 +5075,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="37"/>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -5019,7 +5094,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="37"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
@@ -5040,7 +5115,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="37"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
@@ -5061,7 +5136,7 @@
         <v>63</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="37"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
@@ -5082,7 +5157,7 @@
         <v>152</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="37"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
@@ -5103,15 +5178,15 @@
         <v>63</v>
       </c>
       <c r="H46" s="17"/>
-      <c r="I46" s="37"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="20">
         <f>SUM(E40:E46)</f>
         <v>21</v>
@@ -5136,7 +5211,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5157,7 +5232,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="42"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
@@ -5176,7 +5251,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="42"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17"/>
@@ -5195,7 +5270,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="42"/>
+      <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
@@ -5216,15 +5291,15 @@
         <v>68</v>
       </c>
       <c r="H52" s="17"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="20">
         <f>SUM(E48:E52)</f>
         <v>11</v>
@@ -5258,12 +5333,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="20">
         <f>SUM(E54)</f>
         <v>6</v>
@@ -5297,12 +5372,12 @@
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="17">
         <f>SUM(E56)</f>
         <v>3</v>
@@ -5313,12 +5388,12 @@
       <c r="I57" s="22"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="2" t="s">
         <v>101</v>
       </c>
@@ -5327,11 +5402,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39" t="s">
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -5346,9 +5421,9 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="12" t="s">
         <v>106</v>
       </c>
@@ -5361,9 +5436,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="12" t="s">
         <v>107</v>
       </c>
@@ -5376,9 +5451,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -5393,9 +5468,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="12" t="s">
         <v>110</v>
       </c>
@@ -5408,11 +5483,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -5427,9 +5502,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="13" t="s">
         <v>18</v>
       </c>
@@ -5442,9 +5517,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -5459,9 +5534,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="13" t="s">
         <v>38</v>
       </c>
@@ -5474,9 +5549,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
@@ -5489,9 +5564,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="13" t="s">
         <v>65</v>
       </c>
@@ -5504,9 +5579,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="13" t="s">
         <v>85</v>
       </c>
@@ -5519,12 +5594,12 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="30"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="14">
         <f>SUMIF(D3:D57,"วิชาเลือก (กลุ่มวิชาชีพเลือก)",E3:E57)</f>
         <v>12</v>
@@ -5534,12 +5609,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="15">
         <f>SUMIF(D3:D57,"หมวดวิชาเลือกเสรี",E3:E57)</f>
         <v>6</v>
@@ -5549,12 +5624,12 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="16">
         <f>SUM(E60:E73)</f>
         <v>135</v>
@@ -5566,13 +5641,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A20:D20"/>
@@ -5589,6 +5657,13 @@
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="I21:I29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="I31:I38"/>
     <mergeCell ref="I40:I46"/>
     <mergeCell ref="I48:I52"/>
